--- a/k03/資格対策Ⅲ_学習予定_03_安達蒼馬.xlsx
+++ b/k03/資格対策Ⅲ_学習予定_03_安達蒼馬.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\資格対策\k02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\資格対策\k03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>前期資格対策Ⅲ　学習計画表</t>
   </si>
@@ -130,6 +130,22 @@
   </si>
   <si>
     <t>学年末試験</t>
+  </si>
+  <si>
+    <t>CGエンジニアの過去問を解いて間違えた用語を優先的に調べる</t>
+    <rPh sb="15" eb="17">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ユウセンテキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1572,14 +1588,14 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1645,8 +1661,12 @@
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="3">
+        <v>45593</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
